--- a/文档/需求获取/QFD/SRA2021-G11-QFD 用户打分表.xlsx
+++ b/文档/需求获取/QFD/SRA2021-G11-QFD 用户打分表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>排序规则</t>
   </si>
@@ -30,25 +30,12 @@
     <t>相对损失  ：1代表损失最小，9代表损失最大</t>
   </si>
   <si>
-    <t xml:space="preserve">总价值    ：为相对收益*相对权值+相对损失*相对权值的和    </t>
-  </si>
-  <si>
-    <t>价值%     : =用例总价值  /  所有用例的总价值之和 * 100%</t>
-  </si>
-  <si>
-    <t>相对成本  ：1代表省时省力，9代表费时费力</t>
-  </si>
-  <si>
-    <t>成本%     : =用例相对成本   /   所有用例成本之和   *   100%</t>
-  </si>
-  <si>
-    <t>相对风险  : 1代表风险最小，9代表风险最大</t>
-  </si>
-  <si>
-    <t>风险%     : =用例相对风险   /  所有用例的风险之和  * 100%</t>
-  </si>
-  <si>
-    <t>优先级    :  = （价值%）/（（成本%*成本价值）+（风险%*风险价值））</t>
+    <t>1、用户负责为用例的相对收益、相对损失部分打分，
+2、利益表示“如果实现，给客户带来的利益”；损失表示“如果不实现，给用户带来的损失”；
+3、打分标准：打分范围为1-9，1代表影响非常轻微，2代表影响轻微，3代表影响较为轻微，4代表影响一般，5代表影响有点重要，6代表影响较为重要，7代表影响重要，8代表影响十分重要，9代表影响超级重要</t>
+  </si>
+  <si>
+    <t>2、利益表示“如果实现，给客户带来的利益”；损失表示“如果不实现，给客户带来的损失”；</t>
   </si>
   <si>
     <t>SRA20201-G11-QFD-用户打分表</t>
@@ -294,10 +281,22 @@
     <t>上传动态</t>
   </si>
   <si>
+    <t>1.3.3.1</t>
+  </si>
+  <si>
+    <t>可见权限</t>
+  </si>
+  <si>
     <t>1.3.4</t>
   </si>
   <si>
-    <t>上传钓鱼经历</t>
+    <t>上传帖子</t>
+  </si>
+  <si>
+    <t>1.3.4.1</t>
+  </si>
+  <si>
+    <t>钓点定位选择</t>
   </si>
   <si>
     <t>社交</t>
@@ -312,7 +311,7 @@
     <t>1.4.2</t>
   </si>
   <si>
-    <t>钓鱼经历点赞评论转发</t>
+    <t>帖子点赞评论转发</t>
   </si>
   <si>
     <t>1.4.3</t>
@@ -393,11 +392,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,7 +407,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -416,7 +414,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -430,16 +427,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,16 +456,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,14 +479,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -490,32 +486,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,7 +503,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,39 +558,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -597,13 +586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,67 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,31 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +640,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,19 +736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,19 +748,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,6 +965,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -991,61 +989,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,9 +1015,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,10 +1070,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,137 +1082,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1236,17 +1225,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,10 +1300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1695,10 +1678,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:K68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1722,7 +1705,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="29"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="4" t="s">
@@ -1739,7 +1722,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="30"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="4" t="s">
@@ -1756,7 +1739,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="30"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="4" t="s">
@@ -1773,1421 +1756,1453 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="30"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="31"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="31"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="31"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="31"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="31"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="31"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="31"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" ht="15.15" spans="2:14">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="32"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" ht="15.15"/>
     <row r="15" ht="15.15"/>
-    <row r="16" spans="1:15">
-      <c r="A16" s="10" t="s">
+    <row r="16" ht="15.9" spans="1:15">
+      <c r="A16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" ht="15.15" spans="1:15">
+      <c r="A17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="14">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="33"/>
-    </row>
-    <row r="17" ht="15.15" spans="1:15">
-      <c r="A17" s="12" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="14">
+        <v>1.1</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="33"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="33"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="15">
-        <v>1</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="15" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="35"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="15">
-        <v>1.1</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="18" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="33"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="35"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="15" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="20" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="33"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="35"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="22" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="33"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="35"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="22" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="33"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="35"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="22" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="33"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="35"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="22" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="33"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="35"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="15" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="20" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="33"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="35"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="22" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="33"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="35"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="22" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24" t="s">
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="33"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="35"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="22" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="33"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="35"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="22" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="33"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="35"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="15" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="20" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="33"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="35"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="22" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="35"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="22" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="26" t="s">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="33"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="35"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="22" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="33"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="35"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="22" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24" t="s">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="33"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="35"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="15" t="s">
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="33"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="20" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="35"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="22" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="33"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="35"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="18" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="33"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="35"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="15" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="20" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="33"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="35"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="22" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24" t="s">
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="33"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="35"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="22" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="33"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="35"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="22" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="33"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="35"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="22" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="33"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="35"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="22" t="s">
+      <c r="B45" s="22"/>
+      <c r="C45" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24" t="s">
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="33"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="35"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="15" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="20" t="s">
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="33"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="35"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="22" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24" t="s">
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="33"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="35"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="22" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="27" t="s">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="33"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="35"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="22" t="s">
+      <c r="B49" s="15"/>
+      <c r="C49" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="33"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="35"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="22" t="s">
+      <c r="B50" s="22"/>
+      <c r="C50" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24" t="s">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="33"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="35"/>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="15" t="s">
+      <c r="B51" s="22"/>
+      <c r="C51" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="20" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="33"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="35"/>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="22" t="s">
+      <c r="B52" s="22"/>
+      <c r="C52" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="33"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="35"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="22" t="s">
+      <c r="B53" s="22"/>
+      <c r="C53" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="33"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="35"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="15" t="s">
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="33"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="20" t="s">
+      <c r="B55" s="15"/>
+      <c r="C55" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="35"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="22" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="33"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24" t="s">
+      <c r="B56" s="15"/>
+      <c r="C56" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="35"/>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="18" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="33"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="35"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="15" t="s">
+      <c r="B57" s="15"/>
+      <c r="C57" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="20" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="33"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="35"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="15" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="20" t="s">
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="33"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="35"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="15" t="s">
+      <c r="B59" s="15"/>
+      <c r="C59" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="20" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="33"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="35"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="15" t="s">
+      <c r="B60" s="22"/>
+      <c r="C60" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="20" t="s">
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="33"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="35"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="18" t="s">
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="33"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="35"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="15" t="s">
+      <c r="B62" s="15"/>
+      <c r="C62" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="20" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="33"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="35"/>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="15" t="s">
+      <c r="B63" s="15"/>
+      <c r="C63" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="20" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="33"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="35"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="15" t="s">
+      <c r="B64" s="15"/>
+      <c r="C64" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="20" t="s">
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="33"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="35"/>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="15" t="s">
+      <c r="B65" s="15"/>
+      <c r="C65" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="20" t="s">
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="33"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="35"/>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="18" t="s">
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="33"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="35"/>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="15" t="s">
+      <c r="B67" s="15"/>
+      <c r="C67" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="20" t="s">
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="33"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="35"/>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="15" t="s">
+      <c r="B68" s="15"/>
+      <c r="C68" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="20" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="33"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="35"/>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="15" t="s">
+      <c r="B69" s="15"/>
+      <c r="C69" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="20" t="s">
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="33"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="35"/>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="15" t="s">
+      <c r="B70" s="15"/>
+      <c r="C70" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="20" t="s">
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="33"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="35"/>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="15" t="s">
+      <c r="B71" s="15"/>
+      <c r="C71" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="20" t="s">
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="33"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="35"/>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="18" t="s">
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="33"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="35"/>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="15" t="s">
+      <c r="B73" s="15"/>
+      <c r="C73" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="20" t="s">
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="33"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="35"/>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="15" t="s">
+      <c r="B74" s="15"/>
+      <c r="C74" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="20" t="s">
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="33"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="35"/>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="22" t="s">
+      <c r="B75" s="22"/>
+      <c r="C75" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24" t="s">
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="32"/>
+      <c r="O75" s="33"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="35"/>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="22" t="s">
+      <c r="B76" s="22"/>
+      <c r="C76" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="35"/>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="35"/>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="22"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="34"/>
-      <c r="O76" s="35"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="32"/>
+      <c r="O76" s="33"/>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="33"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="240">
+  <mergeCells count="248">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B4:N4"/>
@@ -3392,14 +3407,14 @@
     <mergeCell ref="N66:O66"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="C67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="C68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="C69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="C70:K70"/>
     <mergeCell ref="L70:M70"/>
@@ -3428,6 +3443,14 @@
     <mergeCell ref="C76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/文档/需求获取/QFD/SRA2021-G11-QFD 用户打分表.xlsx
+++ b/文档/需求获取/QFD/SRA2021-G11-QFD 用户打分表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="20920" windowHeight="11260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>排序规则</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>钓友详情与状态（并进入钓友个人页面）</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>定位自身位置</t>
   </si>
   <si>
     <t>约钓</t>
@@ -391,15 +397,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -427,23 +440,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,41 +469,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,6 +507,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -518,7 +524,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -527,7 +541,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,23 +572,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,31 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,19 +637,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,13 +703,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,43 +727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +745,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,30 +782,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,15 +986,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -985,15 +997,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,10 +1018,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1027,8 +1028,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,6 +1063,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1070,168 +1091,171 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1240,40 +1264,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1291,22 +1315,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1315,14 +1351,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
@@ -1678,1531 +1723,1552 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:K35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15"/>
-    <row r="2" ht="22.95" spans="2:14">
-      <c r="B2" s="2" t="s">
+    <row r="1" ht="14.75"/>
+    <row r="2" ht="23.75" spans="2:14">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="28"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="29"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="29"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="29"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="29"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="29"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="29"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="34"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="29"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="34"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="29"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="34"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="29"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="34"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="29"/>
-    </row>
-    <row r="13" ht="15.15" spans="2:14">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="30"/>
-    </row>
-    <row r="14" ht="15.15"/>
-    <row r="15" ht="15.15"/>
-    <row r="16" ht="15.9" spans="1:15">
-      <c r="A16" s="9" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="34"/>
+    </row>
+    <row r="13" ht="14.75" spans="2:14">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="35"/>
+    </row>
+    <row r="14" ht="14.75"/>
+    <row r="15" ht="14.75"/>
+    <row r="16" ht="15.5" spans="1:15">
+      <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" ht="15.15" spans="1:15">
-      <c r="A17" s="11" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="36"/>
+    </row>
+    <row r="17" ht="14.75" spans="1:15">
+      <c r="A17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13" t="s">
+      <c r="M17" s="13"/>
+      <c r="N17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="12"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="14">
+      <c r="A18" s="15">
         <v>1</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="33"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="14">
+      <c r="A19" s="15">
         <v>1.1</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="33"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="38"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="33"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="33"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="38"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="33"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="33"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="33"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="38"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="33"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="33"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="38"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="33"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="38"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="33"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="38"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="33"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="38"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="33"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="38"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="33"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="38"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="33"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="38"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="33"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="38"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="33"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="14">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="38"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:15">
+      <c r="A37" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="44"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="15">
         <v>1.2</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="33"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="33"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="38"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="33"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="38"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="33"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="38"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23" t="s">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="33"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="38"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="33"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="38"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="33"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="38"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="33"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="38"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23" t="s">
+      <c r="B45" s="16"/>
+      <c r="C45" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="33"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="38"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="26" t="s">
+      <c r="B46" s="23"/>
+      <c r="C46" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="33"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="38"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="33"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="38"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23" t="s">
+      <c r="B48" s="23"/>
+      <c r="C48" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="33"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="38"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="33"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="38"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="33"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="38"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23" t="s">
+      <c r="B51" s="23"/>
+      <c r="C51" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="33"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="38"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="23"/>
+      <c r="C52" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="33"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="38"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23" t="s">
+      <c r="B53" s="23"/>
+      <c r="C53" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="33"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="38"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="14">
+      <c r="A54" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="38"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="15">
         <v>1.3</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="33"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="19" t="s">
+      <c r="B55" s="16"/>
+      <c r="C55" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="33"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="38"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="19" t="s">
+      <c r="B56" s="16"/>
+      <c r="C56" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="33"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="38"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="16"/>
+      <c r="C57" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="33"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="38"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23" t="s">
+      <c r="B58" s="16"/>
+      <c r="C58" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="33"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="38"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="23"/>
+      <c r="C59" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="33"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="38"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23" t="s">
+      <c r="B60" s="16"/>
+      <c r="C60" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="33"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="38"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="14">
+      <c r="A61" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="38"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="15">
         <v>1.4</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="33"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="19" t="s">
+      <c r="B62" s="16"/>
+      <c r="C62" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="33"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="38"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="16"/>
+      <c r="C63" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="33"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="38"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="19" t="s">
+      <c r="B64" s="16"/>
+      <c r="C64" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="33"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="38"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="19" t="s">
+      <c r="B65" s="16"/>
+      <c r="C65" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="33"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="38"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="14">
+      <c r="A66" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="38"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="15">
         <v>1.5</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="33"/>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="16"/>
+      <c r="C67" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="33"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="38"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="16"/>
+      <c r="C68" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="33"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="38"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="16"/>
+      <c r="C69" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="33"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="38"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="19" t="s">
+      <c r="B70" s="16"/>
+      <c r="C70" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="33"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="38"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="19" t="s">
+      <c r="B71" s="16"/>
+      <c r="C71" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="33"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="38"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="14">
+      <c r="A72" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="38"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="15">
         <v>1.6</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="33"/>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="19" t="s">
+      <c r="B73" s="16"/>
+      <c r="C73" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="33"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="38"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="19" t="s">
+      <c r="B74" s="16"/>
+      <c r="C74" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="33"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="38"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23" t="s">
+      <c r="B75" s="16"/>
+      <c r="C75" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="32"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="33"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="38"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="23" t="s">
+      <c r="B76" s="23"/>
+      <c r="C76" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="32"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="32"/>
-      <c r="O76" s="33"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="38"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="21"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="32"/>
-      <c r="M77" s="33"/>
-      <c r="N77" s="32"/>
-      <c r="O77" s="33"/>
+      <c r="A77" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="38"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="33"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="37"/>
+      <c r="O78" s="38"/>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="248">
+  <mergeCells count="252">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B4:N4"/>
@@ -3336,10 +3402,10 @@
     <mergeCell ref="N47:O47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:K50"/>
     <mergeCell ref="L50:M50"/>
@@ -3348,15 +3414,15 @@
     <mergeCell ref="C51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="A53:B53"/>
     <mergeCell ref="C53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="C54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="C55:K55"/>
     <mergeCell ref="L55:M55"/>
@@ -3415,10 +3481,10 @@
     <mergeCell ref="N68:O68"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="C69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="C70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="C71:K71"/>
     <mergeCell ref="L71:M71"/>
@@ -3451,6 +3517,10 @@
     <mergeCell ref="C78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3467,7 +3537,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3484,7 +3554,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/文档/需求获取/QFD/SRA2021-G11-QFD 用户打分表.xlsx
+++ b/文档/需求获取/QFD/SRA2021-G11-QFD 用户打分表.xlsx
@@ -397,9 +397,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -449,7 +449,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,8 +462,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,7 +509,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,15 +517,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,9 +569,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,35 +591,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -607,7 +607,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,85 +757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,79 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,6 +986,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -997,6 +1021,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,23 +1063,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,26 +1083,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1091,10 +1091,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,133 +1103,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1726,7 +1726,7 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:K26"/>
+      <selection activeCell="N37" sqref="N37:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2388,9 +2388,13 @@
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
       <c r="K37" s="42"/>
-      <c r="L37" s="43"/>
+      <c r="L37" s="43">
+        <v>5</v>
+      </c>
       <c r="M37" s="44"/>
-      <c r="N37" s="43"/>
+      <c r="N37" s="43">
+        <v>6</v>
+      </c>
       <c r="O37" s="44"/>
     </row>
     <row r="38" spans="1:15">
